--- a/user-data/kenya-household-water-com/kenya-household-water-com.xlsx
+++ b/user-data/kenya-household-water-com/kenya-household-water-com.xlsx
@@ -340,7 +340,7 @@
     <t xml:space="preserve">Units of measure: </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 44</t>
+    <t xml:space="preserve">Source: 45</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-household-water-com/kenya-household-water-com.xlsx
+++ b/user-data/kenya-household-water-com/kenya-household-water-com.xlsx
@@ -340,7 +340,7 @@
     <t xml:space="preserve">Units of measure: </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 45</t>
+    <t xml:space="preserve">Source: 44</t>
   </si>
   <si>
     <t xml:space="preserve"/>
